--- a/medicine/Enfance/Danielle_S._Marcotte/Danielle_S._Marcotte.xlsx
+++ b/medicine/Enfance/Danielle_S._Marcotte/Danielle_S._Marcotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danielle S. Marcotte, née à Amos dans la province de Québec au Canada le 24 octobre 1952, est une auteure pour enfants canadienne. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a vécu dans le comté d’Abitibi au Québec pendant une douzaine d’années avant d’habiter la région de Montréal, puis celle de Sackville au Nouveau-Brunswick et de déménager en Colombie-Britannique en 1974. Elle est mariée et a deux enfants[réf. nécessaire].
-Elle a quitté le programme de Maitrise en Histoire de l’Université de Victoria pour travailler en tant que recherchiste, animatrice et réalisatrice à Vancouver, à Radio-Canada. Elle quitte cet emploi après 33 ans pour se consacrer à l’écriture pour enfants ainsi que des articles pour les journaux et magazines en anglais et en français en 2009. Elle a aussi traduit elle-même ses quatre premiers livres en anglais[1].
-Elle a d'abord écrit pour les quatre à neuf ans et ses livres sont illustrés en couleur par différents artistes[2].
-Ses histoires se déroulent en général dans les territoires du Grand Nord et les provinces de l’ouest du Canada. Les thèmes explorent la responsabilité individuelle et l’entraide collective[3],[4].
+Elle a quitté le programme de Maitrise en Histoire de l’Université de Victoria pour travailler en tant que recherchiste, animatrice et réalisatrice à Vancouver, à Radio-Canada. Elle quitte cet emploi après 33 ans pour se consacrer à l’écriture pour enfants ainsi que des articles pour les journaux et magazines en anglais et en français en 2009. Elle a aussi traduit elle-même ses quatre premiers livres en anglais.
+Elle a d'abord écrit pour les quatre à neuf ans et ses livres sont illustrés en couleur par différents artistes.
+Ses histoires se déroulent en général dans les territoires du Grand Nord et les provinces de l’ouest du Canada. Les thèmes explorent la responsabilité individuelle et l’entraide collective,.
 </t>
         </is>
       </c>
